--- a/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04382501267032005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05732390158112206</v>
+        <v>0.05732390158112208</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03365056917118603</v>
@@ -685,7 +685,7 @@
         <v>0.04516400340961884</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03513197714734721</v>
+        <v>0.0351319771473472</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04190223434687804</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03027760287641759</v>
+        <v>0.02990224546670146</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0261867108996467</v>
+        <v>0.02798201410669762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02163774898326434</v>
+        <v>0.0222351016008519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03788821022523634</v>
+        <v>0.03895674276092672</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01622269065230616</v>
+        <v>0.01531659247227256</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03110379371186712</v>
+        <v>0.02979540416180067</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02334068749449263</v>
+        <v>0.02565919929733145</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02097721428503177</v>
+        <v>0.02138109677307888</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02859886708245847</v>
+        <v>0.02607722818616652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03448602071436811</v>
+        <v>0.03483291465019139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02877531276513824</v>
+        <v>0.02818234114132444</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0337243728966253</v>
+        <v>0.03409073854749811</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07900019543598806</v>
+        <v>0.07990919834247935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08361436918554906</v>
+        <v>0.09323325222169017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07399828690681824</v>
+        <v>0.07471226850619671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08465056829583924</v>
+        <v>0.08556676232971272</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06386063202272103</v>
+        <v>0.06490290098420488</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09266360872679255</v>
+        <v>0.08452399271178522</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08143570350558256</v>
+        <v>0.08185803274723648</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05440942941959252</v>
+        <v>0.05529622882580255</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0624582604193312</v>
+        <v>0.06027947994815117</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07310872332502749</v>
+        <v>0.07208683607173484</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06522256550820155</v>
+        <v>0.06311807656296872</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06157672441815521</v>
+        <v>0.06196060676257307</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.05522038861029988</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04473414184601979</v>
+        <v>0.0447341418460198</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05960140324273001</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04764695152649821</v>
+        <v>0.04740649107185924</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02445386305911958</v>
+        <v>0.02333970731659227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05155190979678641</v>
+        <v>0.05063134751303745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04282438607244055</v>
+        <v>0.04291273725428064</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03485062064058984</v>
+        <v>0.03513553261458117</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03505640861733215</v>
+        <v>0.03261609137429661</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03647556903532253</v>
+        <v>0.03706912734182694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03097708642675395</v>
+        <v>0.03260262708038753</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0472351261552433</v>
+        <v>0.04520756582569469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03274494754401865</v>
+        <v>0.03340242992461466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04851551939400377</v>
+        <v>0.0483702570635492</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0422801128538955</v>
+        <v>0.04194035244090498</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09224651450487084</v>
+        <v>0.09152173848270009</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06283457724911028</v>
+        <v>0.06361116843080093</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09662987628790749</v>
+        <v>0.09594553458337345</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08614545718671077</v>
+        <v>0.08644898367134719</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07419022823854293</v>
+        <v>0.07450507350351891</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07463947352729249</v>
+        <v>0.07229440272007046</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07912245363069563</v>
+        <v>0.08125413022100483</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06291023138222961</v>
+        <v>0.06185842160194679</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07743889884896671</v>
+        <v>0.07661453001738343</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06014216453041491</v>
+        <v>0.05918596374823242</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07754515973168494</v>
+        <v>0.07935473781316242</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06777484680074565</v>
+        <v>0.06756192049840538</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0257274231458821</v>
+        <v>0.02617486392751046</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03802626118364323</v>
+        <v>0.03851973068647393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03445232803913131</v>
+        <v>0.03364954593508426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04044017491958122</v>
+        <v>0.04284157910255123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03083161473645595</v>
+        <v>0.03010624991564977</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04256134977120512</v>
+        <v>0.04368943560555093</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01239042753931407</v>
+        <v>0.01253226376612886</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05033520184095545</v>
+        <v>0.05357719985267835</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03351761656713993</v>
+        <v>0.03324910682408311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04814419331850197</v>
+        <v>0.04698392134955601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02704880376341984</v>
+        <v>0.02802474958354323</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05210209015821005</v>
+        <v>0.0514502447074435</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06677576684714787</v>
+        <v>0.07476961531222751</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09475501900270719</v>
+        <v>0.09773893140738445</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08066954151394763</v>
+        <v>0.08285525474850319</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08359504155949518</v>
+        <v>0.08593504015059983</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08044305502867298</v>
+        <v>0.0786056664913278</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1000781938817937</v>
+        <v>0.09346996036003515</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05360550279048483</v>
+        <v>0.05565593881595114</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09202499822099819</v>
+        <v>0.09185372124322204</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06746893607100067</v>
+        <v>0.06522724997415406</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09020461472410167</v>
+        <v>0.08420794544266441</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05833603556334212</v>
+        <v>0.06000910150496665</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08195082719928956</v>
+        <v>0.08115253581718945</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0229292479256636</v>
+        <v>0.02465771938505593</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04851594842762365</v>
+        <v>0.04676840599671706</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04491492684030007</v>
+        <v>0.04485125279474449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04115958436519996</v>
+        <v>0.03911896305022814</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03712714195732156</v>
+        <v>0.03816532642884354</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03081750005699507</v>
+        <v>0.03107035880602754</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07050300241971261</v>
+        <v>0.07335712866942634</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03322617890046706</v>
+        <v>0.03263856445350595</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03506228413241742</v>
+        <v>0.03568033945859116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0453438846408505</v>
+        <v>0.04480540593428484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06735638481160623</v>
+        <v>0.06803661275478537</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03983379614956743</v>
+        <v>0.03945605994783583</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06250925125703552</v>
+        <v>0.06257850769900478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1064523812444183</v>
+        <v>0.1044031109823408</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09606150955893408</v>
+        <v>0.09541173672277051</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08437742261423679</v>
+        <v>0.08166709906881335</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0841198863178661</v>
+        <v>0.08578730081643759</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07506511965239912</v>
+        <v>0.07783326402919173</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1418156841566735</v>
+        <v>0.1432080015880389</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07421872872062951</v>
+        <v>0.06917476084216817</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06660263840492522</v>
+        <v>0.06522643898801828</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08295955402734374</v>
+        <v>0.08089075966140095</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1105584352313853</v>
+        <v>0.1129265378979541</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06980704049724851</v>
+        <v>0.0686526964672609</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06032161377678545</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03295274159583727</v>
+        <v>0.03295274159583728</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0498913677614423</v>
@@ -1229,7 +1229,7 @@
         <v>0.04373251509282689</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04137546679937323</v>
+        <v>0.04137546679937321</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06417943811766891</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04719470717571845</v>
+        <v>0.04713557485669791</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03569765837660916</v>
+        <v>0.03566261287244751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03165477367770068</v>
+        <v>0.03170423879417519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01793354510902962</v>
+        <v>0.01792143344190406</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02437546203159297</v>
+        <v>0.02473105207569632</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03563419028047606</v>
+        <v>0.03295614688063516</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02240407447450101</v>
+        <v>0.01982528262847564</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02739444603015032</v>
+        <v>0.0274328438020876</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04141772311630078</v>
+        <v>0.04309367965754416</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04202750914691258</v>
+        <v>0.04182864376750191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03346066159976564</v>
+        <v>0.03414341787504771</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02713882970811832</v>
+        <v>0.02695412124251589</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1185359065686171</v>
+        <v>0.1215228096708897</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1075735654946515</v>
+        <v>0.1035537898294508</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1003536453688356</v>
+        <v>0.09768166440798809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05552075800348813</v>
+        <v>0.05582172076069269</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08750051039615449</v>
+        <v>0.08715415124017264</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1044609836936635</v>
+        <v>0.09781843652330044</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0778953011141309</v>
+        <v>0.07752267761616291</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06049003771708961</v>
+        <v>0.06051402056360169</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08891989283804021</v>
+        <v>0.08966398742872599</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08923546554092729</v>
+        <v>0.09031942516377413</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07628365857513378</v>
+        <v>0.07616646229537866</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04951929671818268</v>
+        <v>0.05198176177619725</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.04845906840660431</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06032395758774289</v>
+        <v>0.0603239575877429</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.06906418630533655</v>
@@ -1365,7 +1365,7 @@
         <v>0.07574082366062893</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05473991924426112</v>
+        <v>0.05473991924426108</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.06663762323950286</v>
@@ -1377,7 +1377,7 @@
         <v>0.06235412359369081</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05756828033801987</v>
+        <v>0.05756828033801986</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04190436194056207</v>
+        <v>0.0417356745084829</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03716042332092866</v>
+        <v>0.04108620384957896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02746986944738</v>
+        <v>0.02636637922000501</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04025514848864048</v>
+        <v>0.0423775008735243</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04420445775562359</v>
+        <v>0.0427653008406387</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03735697224701808</v>
+        <v>0.04168929776336568</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04713704386071765</v>
+        <v>0.04740081952323355</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04026859706770473</v>
+        <v>0.03873289298781107</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04654605287106142</v>
+        <v>0.04874985959092238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04773295657002107</v>
+        <v>0.04758355015287064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04336774125954096</v>
+        <v>0.04160709833082536</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04578467571452623</v>
+        <v>0.04426728376412967</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09624101794701426</v>
+        <v>0.1022207637781526</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09625431603694859</v>
+        <v>0.104513505128289</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08280880005743103</v>
+        <v>0.08244502770677083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0817977662356016</v>
+        <v>0.08471529055488743</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1049196955230045</v>
+        <v>0.1066461038682288</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1009508050810681</v>
+        <v>0.1060684990024589</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1131808252940358</v>
+        <v>0.1184707778394405</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07699648081882533</v>
+        <v>0.0775731268284464</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08965548495573061</v>
+        <v>0.09034205375669915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08906859171804177</v>
+        <v>0.09080661472143227</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09074372513129979</v>
+        <v>0.08740362709421937</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07289544750003643</v>
+        <v>0.07294555464842309</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.05386932012841224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05828171421055871</v>
+        <v>0.05828171421055873</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04802176010275807</v>
@@ -1501,7 +1501,7 @@
         <v>0.03695521274383872</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.06044182169703104</v>
+        <v>0.06044182169703105</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.04544821571116409</v>
@@ -1513,7 +1513,7 @@
         <v>0.04519431650814103</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05939968473007393</v>
+        <v>0.05939968473007394</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02943151066946169</v>
+        <v>0.02958555130655662</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04828592000963884</v>
+        <v>0.0472249679834679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03825976151349194</v>
+        <v>0.03874172863333231</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04260220035317519</v>
+        <v>0.04323353483756193</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03308013744853384</v>
+        <v>0.03216788702947686</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02434951669116706</v>
+        <v>0.02337748743535218</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02326355485299468</v>
+        <v>0.0234118237378237</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04618032825615801</v>
+        <v>0.04766776728353843</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0354844801205039</v>
+        <v>0.03546145016632737</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03906559631260248</v>
+        <v>0.03929365997235262</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03426381680026339</v>
+        <v>0.03400567075699008</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04873782208462681</v>
+        <v>0.04940595270407382</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06081738660197288</v>
+        <v>0.06178034562137033</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08876155867975689</v>
+        <v>0.08579916450643296</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07466307840311932</v>
+        <v>0.07353921650601628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07803531655628215</v>
+        <v>0.07673327272510448</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06755462666957887</v>
+        <v>0.06739932517028888</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05266903353151776</v>
+        <v>0.05198806085730551</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0552173285318666</v>
+        <v>0.05551917870995269</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07619843708196478</v>
+        <v>0.07583591658961832</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0591395051986507</v>
+        <v>0.05942153112533396</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06376418340193342</v>
+        <v>0.06349812307124619</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05755607185269577</v>
+        <v>0.05715140045077451</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07161062668376054</v>
+        <v>0.07041676320686177</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.05164491996732955</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.05794256551054277</v>
+        <v>0.05794256551054278</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05716093231948825</v>
@@ -1649,7 +1649,7 @@
         <v>0.0587518198000738</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.05829557562976898</v>
+        <v>0.05829557562976896</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04358026335804162</v>
+        <v>0.04139478641156787</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01968437440864175</v>
+        <v>0.01951217723977465</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0500953981476592</v>
+        <v>0.05040895769708323</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04598184536393044</v>
+        <v>0.04507620563084231</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04102073592883031</v>
+        <v>0.04180583610669528</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02404796899020733</v>
+        <v>0.02448511510216304</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03626990825926284</v>
+        <v>0.03754483457187179</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04531036843680674</v>
+        <v>0.04629456228628363</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04615572761208471</v>
+        <v>0.04665442540529564</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02433596174631624</v>
+        <v>0.02482261456594435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04622518396191016</v>
+        <v>0.04700600996264184</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04943165087901825</v>
+        <v>0.04884349937716431</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07789500785400161</v>
+        <v>0.07697371950249901</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04574205563533786</v>
+        <v>0.0463873935091758</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.088059242339093</v>
+        <v>0.08723414229221066</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07453251563363358</v>
+        <v>0.07369813007841731</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07403688505212291</v>
+        <v>0.07421607768863131</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05020245377578665</v>
+        <v>0.0503280957775793</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07069619541254207</v>
+        <v>0.06906203029259998</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07211231245091741</v>
+        <v>0.07179471289105886</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07087456205019324</v>
+        <v>0.07068552783921067</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04386550238936223</v>
+        <v>0.04340950159683749</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07057894042773982</v>
+        <v>0.0726326054160786</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06803218139730555</v>
+        <v>0.06759970328415647</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.05388117087495888</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.05328229610739405</v>
+        <v>0.05328229610739404</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.05353354556355526</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04502497499572403</v>
+        <v>0.04544814033705339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05205982256876356</v>
+        <v>0.05224068825749241</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05092877560751885</v>
+        <v>0.05136723651055457</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04183017457217149</v>
+        <v>0.04168181964496705</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04598019206020279</v>
+        <v>0.0461056595878053</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04786084518390744</v>
+        <v>0.04732481572855537</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.04494774127067262</v>
+        <v>0.04551933752117942</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05102907691682794</v>
+        <v>0.05126600867880824</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05063851515737276</v>
+        <v>0.05102124525646379</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06077608485426605</v>
+        <v>0.06138974272855036</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06865452163784481</v>
+        <v>0.06800057011418693</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06507268869030432</v>
+        <v>0.06547926145113234</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05534014423076206</v>
+        <v>0.05617083264478458</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06239024958886035</v>
+        <v>0.06234919574456235</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05940008078495942</v>
+        <v>0.05922947699358394</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.05573682442305803</v>
+        <v>0.05602626753457222</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.06276412468613551</v>
+        <v>0.06239197226252492</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06031684192540772</v>
+        <v>0.06023362422898087</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8266</v>
+        <v>8164</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7621</v>
+        <v>8143</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6356</v>
+        <v>6532</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12080</v>
+        <v>12421</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4231</v>
+        <v>3995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8839</v>
+        <v>8467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6739</v>
+        <v>7408</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6630</v>
+        <v>6758</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15267</v>
+        <v>13921</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19836</v>
+        <v>20036</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16761</v>
+        <v>16415</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>21412</v>
+        <v>21644</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21568</v>
+        <v>21816</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24333</v>
+        <v>27133</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21738</v>
+        <v>21948</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26990</v>
+        <v>27283</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16657</v>
+        <v>16929</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26333</v>
+        <v>24020</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23511</v>
+        <v>23633</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17197</v>
+        <v>17477</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33343</v>
+        <v>32180</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>42052</v>
+        <v>41464</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37990</v>
+        <v>36764</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>39095</v>
+        <v>39339</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23494</v>
+        <v>23375</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12362</v>
+        <v>11799</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25909</v>
+        <v>25446</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22682</v>
+        <v>22729</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17563</v>
+        <v>17707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18290</v>
+        <v>17017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19080</v>
+        <v>19390</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16889</v>
+        <v>17775</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>47095</v>
+        <v>45073</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33638</v>
+        <v>34313</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49760</v>
+        <v>49611</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45446</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45484</v>
+        <v>45127</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31765</v>
+        <v>32157</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48564</v>
+        <v>48220</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45628</v>
+        <v>45789</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37388</v>
+        <v>37547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38942</v>
+        <v>37719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41388</v>
+        <v>42503</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34299</v>
+        <v>33726</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77208</v>
+        <v>76387</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>61782</v>
+        <v>60800</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>79535</v>
+        <v>81391</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>72849</v>
+        <v>72620</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8203</v>
+        <v>8346</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12287</v>
+        <v>12446</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10975</v>
+        <v>10720</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12779</v>
+        <v>13538</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10341</v>
+        <v>10098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14514</v>
+        <v>14899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4167</v>
+        <v>4215</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17939</v>
+        <v>19094</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21929</v>
+        <v>21753</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31974</v>
+        <v>31204</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>17714</v>
+        <v>18353</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35032</v>
+        <v>34594</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21291</v>
+        <v>23840</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30617</v>
+        <v>31581</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25698</v>
+        <v>26395</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26415</v>
+        <v>27155</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26982</v>
+        <v>26365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34129</v>
+        <v>31875</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18028</v>
+        <v>18718</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32796</v>
+        <v>32735</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44142</v>
+        <v>42675</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>59908</v>
+        <v>55926</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>38203</v>
+        <v>39298</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55102</v>
+        <v>54565</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8224</v>
+        <v>8844</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18144</v>
+        <v>17491</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16617</v>
+        <v>16593</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15358</v>
+        <v>14597</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13791</v>
+        <v>14177</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11956</v>
+        <v>12054</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27305</v>
+        <v>28410</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14020</v>
+        <v>13772</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25600</v>
+        <v>26051</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>34550</v>
+        <v>34140</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51005</v>
+        <v>51521</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31672</v>
+        <v>31372</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22420</v>
+        <v>22445</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39811</v>
+        <v>39045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35539</v>
+        <v>35299</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31485</v>
+        <v>30474</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31247</v>
+        <v>31866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29123</v>
+        <v>30197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54923</v>
+        <v>55462</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31317</v>
+        <v>29189</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48628</v>
+        <v>47624</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>63212</v>
+        <v>61635</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83720</v>
+        <v>85513</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>55504</v>
+        <v>54586</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9595</v>
+        <v>9583</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7590</v>
+        <v>7583</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6686</v>
+        <v>6697</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5062</v>
+        <v>5136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7825</v>
+        <v>7237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4897</v>
+        <v>4334</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6224</v>
+        <v>6233</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17022</v>
+        <v>17710</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>18165</v>
+        <v>18079</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14382</v>
+        <v>14675</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>11748</v>
+        <v>11668</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24099</v>
+        <v>24707</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22872</v>
+        <v>22017</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21197</v>
+        <v>20632</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11419</v>
+        <v>11481</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18171</v>
+        <v>18099</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22939</v>
+        <v>21480</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17027</v>
+        <v>16945</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13744</v>
+        <v>13750</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36544</v>
+        <v>36850</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>38568</v>
+        <v>39037</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>32787</v>
+        <v>32737</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21436</v>
+        <v>22502</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11348</v>
+        <v>11302</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10181</v>
+        <v>11257</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7228</v>
+        <v>6938</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10897</v>
+        <v>11472</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12295</v>
+        <v>11895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>10428</v>
+        <v>11637</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12874</v>
+        <v>12946</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>10621</v>
+        <v>10216</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>25552</v>
+        <v>26761</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>26402</v>
+        <v>26319</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>23255</v>
+        <v>22311</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>24470</v>
+        <v>23659</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26063</v>
+        <v>27683</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26372</v>
+        <v>28635</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21789</v>
+        <v>21693</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22143</v>
+        <v>22933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29183</v>
+        <v>29663</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28179</v>
+        <v>29608</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>30911</v>
+        <v>32356</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20308</v>
+        <v>20460</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>49217</v>
+        <v>49594</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>49266</v>
+        <v>50227</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>48660</v>
+        <v>46869</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>38959</v>
+        <v>38986</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18101</v>
+        <v>18196</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>32003</v>
+        <v>31300</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>25120</v>
+        <v>25436</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>30660</v>
+        <v>31115</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21112</v>
+        <v>20530</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>16895</v>
+        <v>16221</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16082</v>
+        <v>16184</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>35654</v>
+        <v>36802</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>44471</v>
+        <v>44442</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>52998</v>
+        <v>53307</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>46183</v>
+        <v>45835</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>72704</v>
+        <v>73701</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37404</v>
+        <v>37997</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>58830</v>
+        <v>56867</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49021</v>
+        <v>48283</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>56161</v>
+        <v>55224</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>43115</v>
+        <v>43016</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>36545</v>
+        <v>36072</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>38171</v>
+        <v>38380</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>58830</v>
+        <v>58550</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>74116</v>
+        <v>74470</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>86505</v>
+        <v>86144</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>77577</v>
+        <v>77032</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>106825</v>
+        <v>105044</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>32370</v>
+        <v>30747</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15294</v>
+        <v>15160</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>39003</v>
+        <v>39248</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>36697</v>
+        <v>35974</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>32140</v>
+        <v>32755</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19760</v>
+        <v>20119</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>29965</v>
+        <v>31018</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>37576</v>
+        <v>38392</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>70447</v>
+        <v>71208</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>38905</v>
+        <v>39683</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>74180</v>
+        <v>75433</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>80443</v>
+        <v>79486</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>57859</v>
+        <v>57174</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35540</v>
+        <v>36042</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>68561</v>
+        <v>67919</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>59482</v>
+        <v>58816</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>58009</v>
+        <v>58149</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>41250</v>
+        <v>41354</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>58407</v>
+        <v>57057</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>59802</v>
+        <v>59539</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>108175</v>
+        <v>107886</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>70126</v>
+        <v>69397</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>113262</v>
+        <v>116557</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>110713</v>
+        <v>110009</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>153986</v>
+        <v>155433</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>176709</v>
+        <v>177323</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>179869</v>
+        <v>181418</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>148462</v>
+        <v>147936</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>162979</v>
+        <v>163423</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>178613</v>
+        <v>176613</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>313249</v>
+        <v>317232</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>354085</v>
+        <v>355729</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>367823</v>
+        <v>370603</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>207854</v>
+        <v>209953</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>233037</v>
+        <v>230818</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>229822</v>
+        <v>231258</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>196412</v>
+        <v>199360</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>221145</v>
+        <v>220999</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>221677</v>
+        <v>221040</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>388440</v>
+        <v>390457</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>435513</v>
+        <v>432931</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>438124</v>
+        <v>437519</v>
       </c>
     </row>
     <row r="40">
